--- a/VLE_Data.xlsx
+++ b/VLE_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rettigod\VS Projects\McCabe_Thiele_Stage_Plotter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABF3C90-D6DF-48B5-9131-424288EEB78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94037B9-BD9A-47D2-B4CD-B071C5EB8A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3384" yWindow="3384" windowWidth="17280" windowHeight="9960" activeTab="1" xr2:uid="{387E81B7-D302-4D66-839C-B330E8D99E9E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{387E81B7-D302-4D66-839C-B330E8D99E9E}"/>
   </bookViews>
   <sheets>
     <sheet name="VLE" sheetId="1" r:id="rId1"/>
@@ -449,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09585706-F4AE-424A-B2AE-10600DEE97AD}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,10 +487,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1.9E-2</v>
+        <v>0.02</v>
       </c>
       <c r="B3">
-        <v>0.17</v>
+        <v>0.174814</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -501,10 +501,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>7.2099999999999997E-2</v>
+        <v>0.04</v>
       </c>
       <c r="B4">
-        <v>0.3891</v>
+        <v>0.2833523</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -515,10 +515,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>9.6600000000000005E-2</v>
+        <v>0.06</v>
       </c>
       <c r="B5">
-        <v>0.4375</v>
+        <v>0.3570352</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -529,10 +529,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0.12379999999999999</v>
+        <v>0.08</v>
       </c>
       <c r="B6">
-        <v>0.47039999999999998</v>
+        <v>0.4101901</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
@@ -543,10 +543,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>0.1661</v>
+        <v>0.1</v>
       </c>
       <c r="B7">
-        <v>0.50890000000000002</v>
+        <v>0.4502853</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -557,10 +557,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0.23369999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="B8">
-        <v>0.54449999999999998</v>
+        <v>0.48159689999999999</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -571,81 +571,353 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>0.26079999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="B9">
-        <v>0.55800000000000005</v>
+        <v>0.50675119999999996</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>0.32729999999999998</v>
+        <v>0.16</v>
       </c>
       <c r="B10">
-        <v>0.58260000000000001</v>
+        <v>0.5274508</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>0.39650000000000002</v>
+        <v>0.18</v>
       </c>
       <c r="B11">
-        <v>0.61219999999999997</v>
+        <v>0.54484860000000002</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>0.50790000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="B12">
-        <v>0.65639999999999998</v>
+        <v>0.55975359999999996</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>0.51980000000000004</v>
+        <v>0.22</v>
       </c>
       <c r="B13">
-        <v>0.65990000000000004</v>
+        <v>0.5727508</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>0.57320000000000004</v>
+        <v>0.24</v>
       </c>
       <c r="B14">
-        <v>0.68410000000000004</v>
+        <v>0.58427390000000001</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>0.67630000000000001</v>
+        <v>0.26</v>
       </c>
       <c r="B15">
-        <v>0.73850000000000005</v>
+        <v>0.59465190000000001</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>0.74719999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="B16">
-        <v>0.78149999999999997</v>
+        <v>0.60413910000000004</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>0.89429999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="B17">
-        <v>0.89429999999999998</v>
+        <v>0.61293560000000002</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
+        <v>0.32</v>
+      </c>
+      <c r="B18">
+        <v>0.62120109999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0.34</v>
+      </c>
+      <c r="B19">
+        <v>0.6290654</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0.36</v>
+      </c>
+      <c r="B20">
+        <v>0.63663499999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0.38</v>
+      </c>
+      <c r="B21">
+        <v>0.64399879999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0.4</v>
+      </c>
+      <c r="B22">
+        <v>0.65123160000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0.42</v>
+      </c>
+      <c r="B23">
+        <v>0.65839749999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0.44</v>
+      </c>
+      <c r="B24">
+        <v>0.66555189999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0.46</v>
+      </c>
+      <c r="B25">
+        <v>0.67274330000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0.48</v>
+      </c>
+      <c r="B26">
+        <v>0.68001460000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0.5</v>
+      </c>
+      <c r="B27">
+        <v>0.68740469999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0.52</v>
+      </c>
+      <c r="B28">
+        <v>0.69494880000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0.54</v>
+      </c>
+      <c r="B29">
+        <v>0.70267939999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="B30">
+        <v>0.71062689999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="B31">
+        <v>0.71882040000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0.6</v>
+      </c>
+      <c r="B32">
+        <v>0.72728749999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0.62</v>
+      </c>
+      <c r="B33">
+        <v>0.73605529999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>0.64</v>
+      </c>
+      <c r="B34">
+        <v>0.74515030000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>0.66</v>
+      </c>
+      <c r="B35">
+        <v>0.75459909999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>0.68</v>
+      </c>
+      <c r="B36">
+        <v>0.76442829999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>0.7</v>
+      </c>
+      <c r="B37">
+        <v>0.7746651</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>0.72</v>
+      </c>
+      <c r="B38">
+        <v>0.78533719999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>0.74</v>
+      </c>
+      <c r="B39">
+        <v>0.7964736</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>0.76</v>
+      </c>
+      <c r="B40">
+        <v>0.80810409999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>0.78</v>
+      </c>
+      <c r="B41">
+        <v>0.82026019999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>0.8</v>
+      </c>
+      <c r="B42">
+        <v>0.83297509999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>0.82</v>
+      </c>
+      <c r="B43">
+        <v>0.84628389999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>0.84</v>
+      </c>
+      <c r="B44">
+        <v>0.86022399999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>0.86</v>
+      </c>
+      <c r="B45">
+        <v>0.87483540000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>0.88</v>
+      </c>
+      <c r="B46">
+        <v>0.89016110000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>0.9</v>
+      </c>
+      <c r="B47">
+        <v>0.90624749999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>0.92</v>
+      </c>
+      <c r="B48">
+        <v>0.92314450000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>0.94</v>
+      </c>
+      <c r="B49">
+        <v>0.94090649999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>0.96</v>
+      </c>
+      <c r="B50">
+        <v>0.95959249999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>0.98</v>
+      </c>
+      <c r="B51">
+        <v>0.97926690000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
         <v>1</v>
       </c>
-      <c r="B18">
+      <c r="B52">
         <v>1</v>
       </c>
     </row>
@@ -658,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{241E6BBB-FD55-440A-A638-0CD8CBBCED8F}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
